--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958DB36-5B70-4B5D-8840-E41FB6BEC3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECE164-190A-41DC-9099-3700B1D46B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECE164-190A-41DC-9099-3700B1D46B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B64414C-0379-4F5C-B452-B363C5B3E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -806,7 +819,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1156,7 @@
       <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
@@ -1301,38 +1314,38 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B25" t="s">
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="B27" t="s">
         <v>100</v>
@@ -1341,12 +1354,15 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2.54</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="B28" t="s">
         <v>100</v>
@@ -1355,12 +1371,12 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -1369,12 +1385,12 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2.56</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
@@ -1383,12 +1399,12 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -1397,12 +1413,12 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
@@ -1411,72 +1427,69 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,9 +1874,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J57">
-    <sortCondition ref="A2:A57"/>
-    <sortCondition ref="B2:B57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J63">
+    <sortCondition ref="A2:A63"/>
+    <sortCondition ref="B2:B63"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B64414C-0379-4F5C-B452-B363C5B3E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D891D2-4459-4472-AFF7-9E0A0196FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
   <si>
     <t>variable</t>
   </si>
@@ -429,13 +429,31 @@
   </si>
   <si>
     <t>hace falta, no es redudante si ya existe el campo ramal??</t>
+  </si>
+  <si>
+    <t>service_type_gps</t>
+  </si>
+  <si>
+    <t>velocity_gps</t>
+  </si>
+  <si>
+    <t>trust_service_type_gps</t>
+  </si>
+  <si>
+    <t>type_gps</t>
+  </si>
+  <si>
+    <t>nombre_archivo_paradas</t>
+  </si>
+  <si>
+    <t>Especifica trust_service_type_gps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +474,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -505,13 +529,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,13 +1474,16 @@
         <v>2.59</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,10 +1491,13 @@
         <v>2.6</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,114 +1505,113 @@
         <v>2.61</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
         <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>3.2</v>
+        <v>2.71</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>4.0999999999999996</v>
+        <v>2.72</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>4.2</v>
-      </c>
       <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1590,138 +1620,135 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>5.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -1730,12 +1757,15 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -1744,12 +1774,12 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -1758,12 +1788,12 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -1772,12 +1802,12 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -1786,12 +1816,12 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1800,12 +1830,12 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1814,12 +1844,12 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -1828,12 +1858,12 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -1842,12 +1872,12 @@
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1856,29 +1886,86 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>7.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J63">
-    <sortCondition ref="A2:A63"/>
-    <sortCondition ref="B2:B63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J67">
+    <sortCondition ref="A2:A67"/>
+    <sortCondition ref="B2:B67"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D891D2-4459-4472-AFF7-9E0A0196FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F3039-8461-426B-B735-59F3BA71AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
   <si>
     <t>variable</t>
   </si>
@@ -437,16 +437,31 @@
     <t>velocity_gps</t>
   </si>
   <si>
-    <t>trust_service_type_gps</t>
-  </si>
-  <si>
-    <t>type_gps</t>
-  </si>
-  <si>
     <t>nombre_archivo_paradas</t>
   </si>
   <si>
     <t>Especifica trust_service_type_gps</t>
+  </si>
+  <si>
+    <t>Indica cuando se abre y cierra un servicio</t>
+  </si>
+  <si>
+    <t>Hora de inicio del servicio</t>
+  </si>
+  <si>
+    <t>Hora de fin del servicio</t>
+  </si>
+  <si>
+    <t>servicios_gps</t>
+  </si>
+  <si>
+    <t>valor_inicio_servicio</t>
+  </si>
+  <si>
+    <t>valor_fin_servicio</t>
+  </si>
+  <si>
+    <t>utilizar_servicios_gps</t>
   </si>
 </sst>
 </file>
@@ -841,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,158 +1517,164 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" t="s">
-        <v>137</v>
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="B37" t="s">
         <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="B38" t="s">
         <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
         <v>60</v>
       </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J40" s="3"/>
+      <c r="H40" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>4.0999999999999996</v>
+        <v>2.77</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1662,12 +1683,12 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1676,65 +1697,65 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1743,57 +1764,54 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -1802,12 +1820,15 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -1816,12 +1837,12 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -1830,12 +1851,12 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -1844,12 +1865,12 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -1858,12 +1879,12 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -1872,12 +1893,12 @@
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1886,12 +1907,12 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -1900,12 +1921,12 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -1914,12 +1935,12 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -1928,12 +1949,12 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -1942,27 +1963,69 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>7.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J67">
-    <sortCondition ref="A2:A67"/>
-    <sortCondition ref="B2:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
+    <sortCondition ref="A2:A70"/>
+    <sortCondition ref="B2:B70"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F3039-8461-426B-B735-59F3BA71AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED84857-E966-49FB-A386-F357A2D36FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="145">
   <si>
     <t>variable</t>
   </si>
@@ -440,18 +440,9 @@
     <t>nombre_archivo_paradas</t>
   </si>
   <si>
-    <t>Especifica trust_service_type_gps</t>
-  </si>
-  <si>
     <t>Indica cuando se abre y cierra un servicio</t>
   </si>
   <si>
-    <t>Hora de inicio del servicio</t>
-  </si>
-  <si>
-    <t>Hora de fin del servicio</t>
-  </si>
-  <si>
     <t>servicios_gps</t>
   </si>
   <si>
@@ -462,6 +453,21 @@
   </si>
   <si>
     <t>utilizar_servicios_gps</t>
+  </si>
+  <si>
+    <t>Especifica si ve van a utilizar los servicios GPS</t>
+  </si>
+  <si>
+    <t>Servicios GPS</t>
+  </si>
+  <si>
+    <t>Configuración fecha y hora</t>
+  </si>
+  <si>
+    <t>Valor de la variable que marca el inicio del servicio</t>
+  </si>
+  <si>
+    <t>Valor de la variable que marca el fin del servicio</t>
   </si>
 </sst>
 </file>
@@ -858,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="B20" t="s">
         <v>128</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2.25</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2.31</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
@@ -1354,69 +1360,72 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s">
-        <v>120</v>
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.71</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -1425,12 +1434,15 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.81</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
@@ -1439,12 +1451,12 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -1453,12 +1465,12 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2.57</v>
+        <v>2.83</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
@@ -1467,12 +1479,12 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -1481,12 +1493,12 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2.59</v>
+        <v>2.85</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
@@ -1494,16 +1506,13 @@
       <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
+      <c r="D34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="B35" t="s">
         <v>100</v>
@@ -1511,166 +1520,172 @@
       <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>133</v>
+      <c r="D35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39" s="3"/>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="F40" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2.77</v>
+        <v>2.94</v>
       </c>
       <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4"/>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED84857-E966-49FB-A386-F357A2D36FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BFB56-4101-4838-8A1D-2EE5CEB8B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
   <si>
     <t>variable</t>
   </si>
@@ -320,9 +320,6 @@
     <t>trxs</t>
   </si>
   <si>
-    <t>especifica si ordena transacciones por fecha o por variable orden_trx</t>
-  </si>
-  <si>
     <t>ventana de tiempo para que una transacción sea de un mismo viaje (ej. 60 minutos)</t>
   </si>
   <si>
@@ -468,6 +465,12 @@
   </si>
   <si>
     <t>Valor de la variable que marca el fin del servicio</t>
+  </si>
+  <si>
+    <t>especifica si ordena transacciones por fecha ("fecha_completa") o por variable orden_trx ("orden_trx") en la tabla nombres_variables_trx</t>
+  </si>
+  <si>
+    <t>Archivo .csv con lineas, debe contener ("id_linea", "nombre_linea", "modo")</t>
   </si>
 </sst>
 </file>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,16 +889,16 @@
         <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
@@ -904,10 +907,10 @@
         <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>90</v>
@@ -1212,10 +1215,10 @@
         <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,7 @@
         <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,7 +1260,7 @@
         <v>2.44</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1269,7 +1272,7 @@
         <v>93</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,7 +1280,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1289,10 +1292,10 @@
         <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>2.46</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1312,7 +1315,7 @@
         <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1320,7 +1323,7 @@
         <v>2.5</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1332,10 +1335,10 @@
         <v>60</v>
       </c>
       <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" t="s">
         <v>116</v>
-      </c>
-      <c r="I23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1343,7 +1346,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1355,7 +1358,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1372,7 +1375,7 @@
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>72</v>
@@ -1389,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1397,13 +1400,13 @@
         <v>2.7</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
         <v>60</v>
@@ -1414,13 +1417,13 @@
         <v>2.71</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,7 +1431,7 @@
         <v>2.8</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -1437,7 +1440,7 @@
         <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1445,7 +1448,7 @@
         <v>2.81</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -1459,7 +1462,7 @@
         <v>2.82</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -1473,7 +1476,7 @@
         <v>2.83</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -1487,7 +1490,7 @@
         <v>2.84</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -1501,7 +1504,7 @@
         <v>2.85</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -1515,7 +1518,7 @@
         <v>2.86</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -1529,13 +1532,13 @@
         <v>2.87</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>60</v>
@@ -1546,13 +1549,13 @@
         <v>2.88</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1560,16 +1563,16 @@
         <v>2.89</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -1578,13 +1581,19 @@
         <v>2.9</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
       <c r="I39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1592,7 +1601,7 @@
         <v>2.91</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1603,7 +1612,7 @@
         <v>2.92</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1615,10 +1624,10 @@
         <v>60</v>
       </c>
       <c r="H41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1626,10 +1635,10 @@
         <v>2.93</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="3"/>
     </row>
@@ -1638,23 +1647,23 @@
         <v>2.94</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="4"/>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
         <v>60</v>
       </c>
       <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
         <v>140</v>
-      </c>
-      <c r="I43" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1662,13 +1671,13 @@
         <v>2.95</v>
       </c>
       <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -1677,13 +1686,13 @@
         <v>2.96</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J45" s="3"/>
     </row>
@@ -1773,7 +1782,7 @@
         <v>5.2</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -1787,7 +1796,7 @@
         <v>5.3</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1801,7 +1810,7 @@
         <v>5.4</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -1815,7 +1824,7 @@
         <v>5.5</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -1838,7 +1847,7 @@
         <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,7 +1973,7 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,7 +2015,7 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,7 +2029,7 @@
         <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BFB56-4101-4838-8A1D-2EE5CEB8B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F1396-5338-4D6C-9616-F04A3E8BF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="148">
   <si>
     <t>variable</t>
   </si>
@@ -62,9 +62,6 @@
     <t>alias_db_insumos</t>
   </si>
   <si>
-    <t>informacion_lineas_contiene_ramales</t>
-  </si>
-  <si>
     <t>lineas_contienen_ramales</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>capas_geo</t>
   </si>
   <si>
-    <t>lista con el contenido a eliminar de la variable seleccionada</t>
-  </si>
-  <si>
     <t>trxs</t>
   </si>
   <si>
@@ -471,6 +465,18 @@
   </si>
   <si>
     <t>Archivo .csv con lineas, debe contener ("id_linea", "nombre_linea", "modo")</t>
+  </si>
+  <si>
+    <t>Capas geográficas con recorridos de líneas</t>
+  </si>
+  <si>
+    <t>archivo geojson con el trazado de las líneas de transporte público</t>
+  </si>
+  <si>
+    <t>Lista con el contenido a eliminar de la variable seleccionada</t>
+  </si>
+  <si>
+    <t>Elimina transacciones inválidas de la tabla de transacciones</t>
   </si>
 </sst>
 </file>
@@ -865,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,34 +892,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,19 +927,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,19 +947,19 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,19 +967,19 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,19 +987,19 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,19 +1007,19 @@
         <v>2.02</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1021,19 +1027,19 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1041,16 +1047,16 @@
         <v>2.04</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1058,16 +1064,16 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,19 +1081,19 @@
         <v>2.06</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1095,16 +1101,16 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,16 +1118,16 @@
         <v>2.08</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1129,16 +1135,16 @@
         <v>2.09</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1146,19 +1152,19 @@
         <v>2.1</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1166,19 +1172,19 @@
         <v>2.11</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1186,16 +1192,16 @@
         <v>2.12</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,22 +1209,22 @@
         <v>2.21</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,16 +1232,16 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1243,16 +1249,16 @@
         <v>2.23</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,19 +1266,22 @@
         <v>2.44</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,7 +1289,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1289,13 +1298,13 @@
         <v>2000</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,19 +1312,19 @@
         <v>2.46</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,7 +1332,7 @@
         <v>2.5</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1332,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,7 +1355,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1355,10 +1364,10 @@
         <v>9265</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,19 +1375,19 @@
         <v>2.6</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1386,13 +1395,13 @@
         <v>2.61</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,16 +1409,16 @@
         <v>2.7</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1417,13 +1426,13 @@
         <v>2.71</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1431,16 +1440,16 @@
         <v>2.8</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1448,13 +1457,13 @@
         <v>2.81</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,13 +1471,13 @@
         <v>2.82</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1476,13 +1485,13 @@
         <v>2.83</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,13 +1499,13 @@
         <v>2.84</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,13 +1513,13 @@
         <v>2.85</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,13 +1527,13 @@
         <v>2.86</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1532,16 +1541,16 @@
         <v>2.87</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,13 +1558,13 @@
         <v>2.88</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1563,16 +1572,16 @@
         <v>2.89</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -1581,130 +1590,133 @@
         <v>2.9</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>130</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="F43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" t="s">
         <v>140</v>
       </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2.96</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -1712,13 +1724,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -1726,13 +1738,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -1740,13 +1752,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
         <v>37</v>
@@ -1754,38 +1766,44 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
-        <v>38</v>
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>39</v>
@@ -1793,13 +1811,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -1807,13 +1825,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -1821,44 +1839,44 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>42</v>
       </c>
+      <c r="I55" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
       </c>
-      <c r="I56" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
@@ -1866,13 +1884,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -1880,13 +1898,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>46</v>
@@ -1894,13 +1912,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
@@ -1908,13 +1926,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -1922,13 +1940,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
         <v>49</v>
@@ -1936,13 +1954,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
         <v>50</v>
@@ -1950,106 +1968,92 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
-    <sortCondition ref="A2:A70"/>
-    <sortCondition ref="B2:B70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J69">
+    <sortCondition ref="A2:A69"/>
+    <sortCondition ref="B2:B69"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F1396-5338-4D6C-9616-F04A3E8BF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645DDE4-2D88-40F4-BEFD-98BCE91D35E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
   <si>
     <t>variable</t>
   </si>
@@ -874,7 +874,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,9 +1160,6 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
@@ -1179,9 +1176,6 @@
       </c>
       <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645DDE4-2D88-40F4-BEFD-98BCE91D35E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD96F9D-4249-4DDA-AAB4-D3BF6B6AF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
   <si>
     <t>variable</t>
   </si>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,9 +1543,6 @@
       <c r="D36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD96F9D-4249-4DDA-AAB4-D3BF6B6AF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C91B0F-5727-489F-B3F0-1E0CEABA6A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
   <si>
     <t>variable</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>Elimina transacciones inválidas de la tabla de transacciones</t>
+  </si>
+  <si>
+    <t>imprimir_lineas_principales</t>
+  </si>
+  <si>
+    <t>Imprimir las lineas principales - "All" imprime todas las líneas</t>
   </si>
 </sst>
 </file>
@@ -871,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,75 +1639,82 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2.94</v>
+        <v>2.931</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="F42" t="s">
-        <v>126</v>
+        <v>98</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
       </c>
       <c r="G42" t="s">
         <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" t="s">
-        <v>138</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>134</v>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1710,12 +1723,12 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -1724,12 +1737,12 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -1738,12 +1751,12 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -1752,43 +1765,43 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" t="s">
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
@@ -1797,12 +1810,12 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
@@ -1811,12 +1824,12 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
@@ -1825,29 +1838,26 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -1856,12 +1866,15 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="I56" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1870,12 +1883,12 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1884,12 +1897,12 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -1898,12 +1911,12 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1912,12 +1925,12 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -1926,12 +1939,12 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -1940,12 +1953,12 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -1954,12 +1967,12 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -1968,12 +1981,12 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -1982,12 +1995,12 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -1996,12 +2009,12 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2010,12 +2023,12 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -2024,27 +2037,41 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>7.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J69">
-    <sortCondition ref="A2:A69"/>
-    <sortCondition ref="B2:B69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
+    <sortCondition ref="A2:A70"/>
+    <sortCondition ref="B2:B70"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
   <si>
     <t xml:space="preserve">orden</t>
   </si>
@@ -688,11 +688,11 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
@@ -1889,9 +1889,6 @@
       <c r="C71" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H71" s="0" t="s">
         <v>152</v>
       </c>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CB803-6D12-4EED-BA7E-14BF73CFE082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229F57E-8491-46EB-898E-32E497E2A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="163">
   <si>
     <t>orden</t>
   </si>
@@ -496,6 +496,24 @@
   </si>
   <si>
     <t>Indica el tipo de tarifa asignado a la transacción</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>otros</t>
+  </si>
+  <si>
+    <t>lancha</t>
+  </si>
+  <si>
+    <t>alias_db_dashboard</t>
+  </si>
+  <si>
+    <t>db_dash</t>
+  </si>
+  <si>
+    <t>nombre del sqlite donde se guardan los datos a mostrar en el dashboard</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,27 +1113,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.0099999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1124,18 +1142,18 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1144,18 +1162,18 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1164,15 +1182,18 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1181,15 +1202,15 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2.06</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1198,18 +1219,15 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1218,15 +1236,18 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1235,15 +1256,15 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1252,15 +1273,15 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1269,15 +1290,15 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1286,15 +1307,15 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1303,15 +1324,15 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1320,15 +1341,15 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1337,263 +1358,263 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20">
-        <v>120</v>
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2.4500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23">
-        <v>2000</v>
-      </c>
-      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2.46</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>2000</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26">
-        <v>9265</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2.6</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>9265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
@@ -1602,12 +1623,15 @@
         <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
@@ -1616,12 +1640,12 @@
         <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
@@ -1630,12 +1654,12 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1644,12 +1668,12 @@
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1658,12 +1682,12 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
@@ -1672,12 +1696,12 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
@@ -1685,175 +1709,175 @@
       <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>96</v>
+      <c r="D38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="4"/>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" t="s">
-        <v>102</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="B41" t="s">
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="B42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" s="4"/>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2.931</v>
+        <v>2.93</v>
       </c>
       <c r="B43" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2.94</v>
+        <v>2.931</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="F44" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" t="s">
-        <v>111</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>112</v>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="F45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" t="s">
-        <v>117</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B48" t="s">
         <v>116</v>
@@ -1862,12 +1886,12 @@
         <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -1876,12 +1900,12 @@
         <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B50" t="s">
         <v>116</v>
@@ -1890,12 +1914,12 @@
         <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -1904,144 +1928,141 @@
         <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="H52" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="H56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I56" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="B61" t="s">
         <v>132</v>
@@ -2050,12 +2071,15 @@
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="I61" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="B62" t="s">
         <v>132</v>
@@ -2064,12 +2088,12 @@
         <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -2078,12 +2102,12 @@
         <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="B64" t="s">
         <v>132</v>
@@ -2092,12 +2116,12 @@
         <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
@@ -2106,12 +2130,12 @@
         <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
@@ -2120,12 +2144,12 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -2134,12 +2158,12 @@
         <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -2148,12 +2172,12 @@
         <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
@@ -2162,12 +2186,12 @@
         <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>132</v>
@@ -2176,12 +2200,12 @@
         <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="B71" t="s">
         <v>132</v>
@@ -2190,37 +2214,93 @@
         <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>9.1</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>151</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C77" t="s">
         <v>151</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H77" t="s">
         <v>152</v>
       </c>
     </row>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229F57E-8491-46EB-898E-32E497E2A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2EE09D-E88A-40BF-9B53-3410CB4C072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2EE09D-E88A-40BF-9B53-3410CB4C072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF11E7-1C69-4264-B717-99442E0CC0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
   <si>
     <t>orden</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>nombre del sqlite donde se guardan los datos a mostrar en el dashboard</t>
+  </si>
+  <si>
+    <t>distance_gps</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,90 +1737,83 @@
       <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="4"/>
+      <c r="D40" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.9</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" t="s">
-        <v>102</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="B42" t="s">
         <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="B43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="4"/>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2.931</v>
+        <v>2.93</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -1826,24 +1822,21 @@
         <v>2.94</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="F45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" t="s">
-        <v>111</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1852,13 +1845,22 @@
       <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J46" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="I46" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1868,30 +1870,31 @@
         <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.97</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -1900,12 +1903,12 @@
         <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B50" t="s">
         <v>116</v>
@@ -1914,12 +1917,12 @@
         <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
@@ -1928,12 +1931,12 @@
         <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
@@ -1942,12 +1945,12 @@
         <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B53" t="s">
         <v>116</v>
@@ -1956,12 +1959,12 @@
         <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B54" t="s">
         <v>116</v>
@@ -1970,12 +1973,12 @@
         <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B55" t="s">
         <v>116</v>
@@ -1984,43 +1987,43 @@
         <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="H56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="H57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B58" t="s">
         <v>126</v>
@@ -2029,12 +2032,12 @@
         <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B59" t="s">
         <v>126</v>
@@ -2043,12 +2046,12 @@
         <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B60" t="s">
         <v>126</v>
@@ -2057,29 +2060,26 @@
         <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
-      </c>
-      <c r="I61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B62" t="s">
         <v>132</v>
@@ -2088,12 +2088,15 @@
         <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="I62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -2102,12 +2105,12 @@
         <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B64" t="s">
         <v>132</v>
@@ -2116,12 +2119,12 @@
         <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
@@ -2130,12 +2133,12 @@
         <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
@@ -2144,12 +2147,12 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -2158,12 +2161,12 @@
         <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -2172,12 +2175,12 @@
         <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
@@ -2186,12 +2189,12 @@
         <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="B70" t="s">
         <v>132</v>
@@ -2200,12 +2203,12 @@
         <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>132</v>
@@ -2214,12 +2217,12 @@
         <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B72" t="s">
         <v>132</v>
@@ -2228,12 +2231,12 @@
         <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B73" t="s">
         <v>132</v>
@@ -2242,12 +2245,12 @@
         <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
@@ -2256,12 +2259,12 @@
         <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
@@ -2270,37 +2273,51 @@
         <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="D76" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>9.1</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>151</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>151</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>152</v>
       </c>
     </row>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sanapolsky\Google Drive\Python 2.0\github\UrbanTrips\UrbanTrips\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF11E7-1C69-4264-B717-99442E0CC0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36563865-838A-449E-A114-AAE526FDAAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="168">
   <si>
     <t>orden</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>distance_gps</t>
+  </si>
+  <si>
+    <t>dash_configs</t>
+  </si>
+  <si>
+    <t>alias_dash_lista</t>
+  </si>
+  <si>
+    <t>alias_data_lista</t>
+  </si>
+  <si>
+    <t>alias_insumos_lista</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2333,52 @@
         <v>152</v>
       </c>
     </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
+    <sortCondition ref="A2:A78"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/docs/configuraciones.xlsx
+++ b/docs/configuraciones.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">Listar los nombres de las corridas [‘lunes’,’martes’], deben coincidir con los archivos trx y gps,por ej lunes_trx.csv, lunes_gps.csv, martes_trx.csv, martes_gps.csv</t>
+    <t xml:space="preserve">Listar los nombres de las corridas [“lunes”,”martes”], deben coincidir con los archivos trx y gps,por ej lunes_trx.csv, lunes_gps.csv, martes_trx.csv, martes_gps.csv</t>
   </si>
   <si>
     <t xml:space="preserve">archivo_transacciones</t>
@@ -880,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
